--- a/TurboVault4dbt Snowflake Demo Sheet.xlsx
+++ b/TurboVault4dbt Snowflake Demo Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoach\Desktop\Work\TurboVault4dbt_NEW\turbovault4dbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB400C1-C6A7-4F5F-AE9B-ECE87EB19EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFE0E5-8A6D-4FED-BE4E-5B21CE8935F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5340" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5340" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="standard_hub" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="234">
   <si>
     <t>Hub_Identifier</t>
   </si>
@@ -341,9 +341,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>TPC-H_SF1</t>
-  </si>
-  <si>
     <t>!Customer</t>
   </si>
   <si>
@@ -470,12 +467,6 @@
     <t>orders_n_s</t>
   </si>
   <si>
-    <t>LEGACY_ORDERKEY</t>
-  </si>
-  <si>
-    <t>CUSTOMER_NAME</t>
-  </si>
-  <si>
     <t>part_n_s</t>
   </si>
   <si>
@@ -620,9 +611,6 @@
     <t>customer_number_tpch_n_ma_s</t>
   </si>
   <si>
-    <t>C_NUMBER;C_FAX</t>
-  </si>
-  <si>
     <t>MAS0001</t>
   </si>
   <si>
@@ -738,6 +726,9 @@
   </si>
   <si>
     <t>H0009</t>
+  </si>
+  <si>
+    <t>SAMPLE_DATA</t>
   </si>
 </sst>
 </file>
@@ -1149,13 +1140,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1187,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1219,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1251,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1265,7 +1256,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -1283,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1315,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1329,7 +1320,7 @@
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -1347,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1361,7 +1352,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
@@ -1379,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1411,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1422,10 +1413,10 @@
         <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>25</v>
@@ -1443,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1475,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -1483,22 +1474,22 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1507,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,22 +1506,22 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1539,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,22 +1538,22 @@
         <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1571,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,13 +1573,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1603,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1611,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -1635,30 +1626,30 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="8">
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1667,30 +1658,30 @@
         <v>1</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F18" s="8">
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1699,30 +1690,30 @@
         <v>1</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1731,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1739,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O15"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1809,10 +1800,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -1820,7 +1811,7 @@
         <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -1841,13 +1832,13 @@
         <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -1855,7 +1846,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
@@ -1876,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -1890,28 +1881,28 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -1919,13 +1910,13 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1940,13 +1931,13 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -1954,13 +1945,13 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -1975,13 +1966,13 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -1989,34 +1980,34 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2024,7 +2015,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
@@ -2045,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2059,7 +2050,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
@@ -2080,13 +2071,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,7 +2085,7 @@
         <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
@@ -2115,13 +2106,13 @@
         <v>1</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2129,7 +2120,7 @@
         <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>24</v>
@@ -2150,27 +2141,27 @@
         <v>2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>17</v>
@@ -2185,97 +2176,97 @@
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L13" s="1">
         <v>2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
@@ -2290,13 +2281,13 @@
         <v>2</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2313,11 +2304,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2356,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2364,7 +2355,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2385,7 +2376,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2393,7 +2384,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -2414,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2422,7 +2413,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
@@ -2443,7 +2434,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2451,7 +2442,7 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2472,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2480,7 +2471,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -2501,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2509,7 +2500,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -2530,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2538,7 +2529,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2559,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2567,7 +2558,7 @@
         <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -2588,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2596,7 +2587,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -2617,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2625,7 +2616,7 @@
         <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
@@ -2646,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2654,7 +2645,7 @@
         <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -2675,7 +2666,7 @@
         <v>5</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2683,7 +2674,7 @@
         <v>62</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -2704,7 +2695,7 @@
         <v>6</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2712,7 +2703,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -2733,65 +2724,65 @@
         <v>7</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2799,13 +2790,13 @@
         <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
@@ -2814,13 +2805,13 @@
         <v>21</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2828,13 +2819,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
@@ -2843,13 +2834,13 @@
         <v>21</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2857,13 +2848,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>17</v>
@@ -2872,13 +2863,13 @@
         <v>21</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2886,13 +2877,13 @@
         <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
@@ -2901,13 +2892,13 @@
         <v>21</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2915,13 +2906,13 @@
         <v>70</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>17</v>
@@ -2930,13 +2921,13 @@
         <v>21</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
@@ -2944,13 +2935,13 @@
         <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>17</v>
@@ -2959,680 +2950,622 @@
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>79</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H23" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>79</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H24" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>190</v>
+      <c r="I25" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>190</v>
+      <c r="I26" s="7" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
         <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
         <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H28" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H29" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E30" t="s">
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H30" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H32" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
         <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H33" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
         <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H34" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" t="s">
         <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H35" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
         <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H36" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" t="s">
-        <v>133</v>
+        <v>164</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H37" s="1">
-        <v>11</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>191</v>
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" t="s">
-        <v>133</v>
+        <v>165</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H38" s="1">
-        <v>12</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>191</v>
+        <v>2</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>167</v>
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>168</v>
+        <v>119</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="H40" s="1">
         <v>2</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H41" s="1">
         <v>1</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H42" s="1">
         <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H44" s="1">
-        <v>2</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" s="1">
-        <v>3</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3647,8 +3580,8 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3666,7 +3599,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>82</v>
@@ -3693,15 +3626,15 @@
         <v>5</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>9</v>
@@ -3716,7 +3649,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>55</v>
@@ -3725,15 +3658,15 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
@@ -3748,7 +3681,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>56</v>
@@ -3757,15 +3690,15 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>9</v>
@@ -3780,7 +3713,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>57</v>
@@ -3789,7 +3722,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
@@ -3848,7 +3781,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3872,7 +3805,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>37</v>
@@ -3911,132 +3844,132 @@
         <v>6</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L2" s="8">
         <v>1</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N2" s="10">
         <v>0</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>204</v>
-      </c>
       <c r="J3" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L3" s="8">
         <v>2</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N3" s="10">
         <v>0</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="N4" s="10">
         <v>0</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N5" s="10">
         <v>0</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
@@ -4077,7 +4010,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="18" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>50</v>
@@ -4098,15 +4031,15 @@
         <v>53</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
@@ -4124,15 +4057,15 @@
         <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>14</v>
@@ -4150,15 +4083,15 @@
         <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>14</v>
@@ -4176,15 +4109,15 @@
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>14</v>
@@ -4202,15 +4135,15 @@
         <v>66</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>14</v>
@@ -4228,15 +4161,15 @@
         <v>67</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>14</v>
@@ -4254,15 +4187,15 @@
         <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>14</v>
@@ -4280,15 +4213,15 @@
         <v>69</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>19</v>
@@ -4306,15 +4239,15 @@
         <v>71</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>19</v>
@@ -4332,15 +4265,15 @@
         <v>72</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>19</v>
@@ -4358,15 +4291,15 @@
         <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>19</v>
@@ -4384,15 +4317,15 @@
         <v>74</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -4410,15 +4343,15 @@
         <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>19</v>
@@ -4436,15 +4369,15 @@
         <v>76</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>19</v>
@@ -4462,15 +4395,15 @@
         <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>19</v>
@@ -4488,7 +4421,7 @@
         <v>78</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4540,24 +4473,24 @@
         <v>94</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4572,8 +4505,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4615,7 +4548,7 @@
         <v>101</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,22 +4562,22 @@
         <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>103</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4655,25 +4588,25 @@
         <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4684,25 +4617,25 @@
         <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4713,25 +4646,25 @@
         <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4742,25 +4675,25 @@
         <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,141 +4704,141 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
